--- a/GUATEMALA/Género/Protección Infantil y Género 2019 Unicef Guatemala.xlsx
+++ b/GUATEMALA/Género/Protección Infantil y Género 2019 Unicef Guatemala.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\BBDD-CENTROAMERICA\GUATEMALA\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E15BE5A-FEDC-4BCD-B10C-179FA6DCB7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C34883-669F-4B5C-8B97-179EDBBEDD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B045ED08-BE14-4D41-872E-DF04CE49EBDA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B045ED08-BE14-4D41-872E-DF04CE49EBDA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="(Original) Proteccion Infantil" sheetId="1" r:id="rId1"/>
+    <sheet name="Protección Infantil" sheetId="3" r:id="rId2"/>
+    <sheet name="Definiciones" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>Matrimonio infantil (%)+ 2012–2018*: Mujeres casadas a los 15</t>
   </si>
@@ -375,13 +376,130 @@
       </rPr>
       <t>– DHS and other national surveys. Last update: March 2019.</t>
     </r>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Matrimonio infantil (%)</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>2012–2018*</t>
+  </si>
+  <si>
+    <t>Hombres</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes (%)</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violencia sexual en la infancia (%) </t>
+  </si>
+  <si>
+    <t>Trabajo infantil (%)</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Disciplina violenta (%)</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Casadas a los 15</t>
+  </si>
+  <si>
+    <t>Casadas a los 18</t>
+  </si>
+  <si>
+    <t>Casados a los 18</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>– Datos no disponibles</t>
+  </si>
+  <si>
+    <t>p Basado en denominadores pequeños (típicamente 25-49 casos no ponderados). Ningún dato basado en menos de 25 casos no ponderados es mostrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x Datos refieren a años o períodos distintos a los que se especifican en el título de las columnas. Esos datos no son incluidos en los cálculos de promedios regionales o globales. Datos de años anteriores al 2000 no son mostrados. </t>
+  </si>
+  <si>
+    <t>y Datos difieren de la definición estándar o refieren a una parte de un país. Si caen dentro del período de tiempo indicado, entonces esos datos son incluidos en el cálculo de promedios regionales y globales</t>
+  </si>
+  <si>
+    <t>* Datos refieren al año disponible más reciente durante el período especificado en el título de las columnas</t>
+  </si>
+  <si>
+    <t>v Estimados del 100% fueron asumidos dado que los servicios de registro civil en estos países están completos y todos los eventos vitales (incluidos los nacimientos) están registrados. Fuente: Naciones Unidas, Departamento de Asuntos Económicos y Sociales, Dvisión de Estadística, última actualización Diciembre 2017</t>
+  </si>
+  <si>
+    <t>+ Una explicación más detallada de la metodología y los cambios en los cálculos de estos estimados pueden encontrarse en la Nota General en el Data, página 180</t>
+  </si>
+  <si>
+    <t>Los datos en itálica son de fuentes más viejas con respecto a los otros datos presentados en esta tabla. Estas discrepancias pueden deberse a que un indicador no estaba disponible en la última fuente utilizada, o a que las bases de datos para cada indicador fueron actualizadas en diferentes fechas</t>
+  </si>
+  <si>
+    <t>Definiciones de los indicadores:</t>
+  </si>
+  <si>
+    <t>Trabajo Infantil: porcentaje de niños de 5-17 años involucrados en trabajo infantil en el momento de la encuesta. Se considera que un niño está involucrado en trabajo infantil en las siguientes condiciones: (a) niños de 5 a 11 años que, durante la semana de referencia, realizaron al menos una hora de actividad económica y / o más de 21 horas de servicios domésticos no remunerados , (b) niños de 12 a 14 años que, durante la semana de referencia, realizaron al menos 14 horas de actividad económica y / o más de 21 horas de servicios domésticos no remunerados, (c) niños de 15 a 17 años que, durante la semana de referencia, realizó al menos 43 horas de actividad económica.</t>
+  </si>
+  <si>
+    <t>Matrimonio Infantil: porcetaje de mujeres de 20-24 años que se casaron antes de los 15 años; porcentaje de mujeres de 20-24 años que se casaron antes de los 18 años; porcentaje de hombres de 20-24 años que se casaron antes de los 18 años</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes: porcentaje de niñas y niños de 15-19 años que consideran que se justifica que un esposo le pegue a su esposa por al menos una de esas razones: si su esposa quema la comida, discute con él, sale sin decirle, descuida a los niños o se resiste a tener relaciones sexuales</t>
+  </si>
+  <si>
+    <t>Disciplina violenta: porcentaje de niños de 1-14 años que sufren cualquier tipo de disciplina violenta (agresión psicológica y/o castigo físico) en el último mes</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia: porcentaje de mujeres y hombres de 18-29 años que sufrieron de violencia sexual antes de cumplir 18 años</t>
+  </si>
+  <si>
+    <t>Principales fuentes de datos:</t>
+  </si>
+  <si>
+    <t>Trabajo Infantil: Demographic and Health Surveys (DHS), Multiple Indicator Cluster Surveys (MICS) and other national surveys. Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Matrimonio Infantil: DHS, MICS and other national surveys. Last update: (female) March 2019; (male) August 2019.</t>
+  </si>
+  <si>
+    <t>Justificación del maltrato a la esposa entre los adolescentes:  DHS, MICS and other national surveys. Last update: August 2019.</t>
+  </si>
+  <si>
+    <t>Disciplina violenta: DHS, MICS and other national surveys. Last update: March 2019.</t>
+  </si>
+  <si>
+    <t>Violencia sexual en la infancia: DHS and other national surveys. Last update: March 2019.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,6 +541,14 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -432,12 +558,25 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -447,7 +586,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1"/>
@@ -457,6 +596,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,6 +618,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F7EFFE71-7367-4D9D-A8F0-40CCD39411E1}" name="Proteccion_Infantil_GT" displayName="Proteccion_Infantil_GT" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{3985B141-5ADD-48F5-82B9-C2F0F9394C05}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{8EB385A3-B922-428E-916D-4CF8B64D5CB8}" name="Categoría"/>
+    <tableColumn id="2" xr3:uid="{9D6DA0CF-CA33-4C93-82DB-133DB5C7372F}" name="Variable"/>
+    <tableColumn id="3" xr3:uid="{0B992ACE-6256-4B1C-B4E7-2B771CCB702E}" name="Sexo"/>
+    <tableColumn id="4" xr3:uid="{E293D3A3-1809-4D8E-A4FC-D5CB29F3B9D8}" name="Fecha"/>
+    <tableColumn id="5" xr3:uid="{095A66D5-7CC4-48C2-AA42-687A0BC3CEC5}" name="Cantidad"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -776,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADCCC34-2582-4A59-B378-ACD3C4C78889}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,143 +1027,440 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C1C27-B6B4-48CA-9480-212EC381E827}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{681B9466-5DD0-4BE3-8786-E474043AEC31}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L11" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L16" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L17" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="L18" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="L21" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="L22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="L23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="L24" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="L25" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="L26" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
     </row>
